--- a/biology/Médecine/Maison_Hillary/Maison_Hillary.xlsx
+++ b/biology/Médecine/Maison_Hillary/Maison_Hillary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison Hillary est un excellent exemple de maison pittoresque de style néogothique. Elle est située 15372, Yonge Street à Aurora en  Ontario.
 </t>
@@ -511,15 +523,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construite en 1862[1], elle a été désignée Lieu historique national du Canada en 1973[2].
-Quatre médecins ont vécu dans cette maison avec leurs familles[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construite en 1862, elle a été désignée Lieu historique national du Canada en 1973.
+Quatre médecins ont vécu dans cette maison avec leurs familles:
 1862 – 69: La maison est construite pour le Dr. Water Bayne Geikie (né en 1830 en Écosse, mort en 1917)
 1869 – 76: Frederick William Strange, médecin militaire
 1876 – 1894: Robert William Hillary (né en 1832 en Irlande, mort en 1894)
 1894: Robert Michael Hillary achète la maison, et une de ses filles y habite jusqu'en 1993.
-De nos jours la maison héberge un musée[4] qui présente une collection d'instruments médicaux[1].
+De nos jours la maison héberge un musée qui présente une collection d'instruments médicaux.
 </t>
         </is>
       </c>
